--- a/summary.xlsx
+++ b/summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Segment-level\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Segment-level\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Se</t>
   </si>
@@ -93,6 +93,34 @@
   </si>
   <si>
     <t>DRIVE-mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mix-training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRIVE+STARE+CHASEDB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,6 +140,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,12 +163,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,265 +559,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="E1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="22.42578125" style="1"/>
+    <col min="2" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125" style="1"/>
+    <col min="1026" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="F3" s="5">
         <v>0.75619000000000003</v>
       </c>
-      <c r="C2">
+      <c r="G3" s="5">
         <v>0.97974000000000006</v>
       </c>
-      <c r="D2">
+      <c r="H3" s="5">
         <v>0.95128000000000001</v>
       </c>
-      <c r="E2">
+      <c r="I3" s="5">
         <v>0.84477999999999998</v>
       </c>
-      <c r="F2">
+      <c r="J3" s="6">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="F4" s="5">
         <v>0.76527999999999996</v>
       </c>
-      <c r="C3">
+      <c r="G4" s="5">
         <v>0.98175000000000001</v>
       </c>
-      <c r="D3">
+      <c r="H4" s="5">
         <v>0.95420000000000005</v>
       </c>
-      <c r="E3">
+      <c r="I4" s="5">
         <v>0.85948000000000002</v>
       </c>
-      <c r="F3">
+      <c r="J4" s="6">
         <v>0.97519999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="F6" s="5">
         <v>0.71608000000000005</v>
       </c>
-      <c r="C5">
+      <c r="G6" s="5">
         <v>0.98250000000000004</v>
       </c>
-      <c r="D5">
+      <c r="H6" s="5">
         <v>0.95501000000000003</v>
       </c>
-      <c r="E5">
+      <c r="I6" s="5">
         <v>0.82477</v>
       </c>
-      <c r="F5">
+      <c r="J6" s="6">
         <v>0.96960000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="F7" s="5">
         <v>0.75812999999999997</v>
       </c>
-      <c r="C6">
+      <c r="G7" s="5">
         <v>0.98458999999999997</v>
       </c>
-      <c r="D6">
+      <c r="H7" s="5">
         <v>0.96123000000000003</v>
       </c>
-      <c r="E6">
+      <c r="I7" s="5">
         <v>0.84987000000000001</v>
       </c>
-      <c r="F6">
+      <c r="J7" s="6">
         <v>0.98009999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="F9" s="5">
         <v>0.74192999999999998</v>
       </c>
-      <c r="C8">
+      <c r="G9" s="5">
         <v>0.98068999999999995</v>
       </c>
-      <c r="D8">
+      <c r="H9" s="5">
         <v>0.95884000000000003</v>
       </c>
-      <c r="E8">
+      <c r="I9" s="5">
         <v>0.79461999999999999</v>
       </c>
-      <c r="F8">
+      <c r="J9" s="6">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="F10" s="8">
         <v>0.76332</v>
       </c>
-      <c r="C9">
+      <c r="G10" s="8">
         <v>0.98092000000000001</v>
       </c>
-      <c r="D9">
+      <c r="H10" s="8">
         <v>0.96101000000000003</v>
       </c>
-      <c r="E9">
+      <c r="I10" s="8">
         <v>0.80115999999999998</v>
       </c>
-      <c r="F9">
+      <c r="J10" s="9">
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="F14" s="5">
         <v>0.72109999999999996</v>
       </c>
-      <c r="C13">
+      <c r="G14" s="5">
         <v>0.98397999999999997</v>
       </c>
-      <c r="D13">
+      <c r="H14" s="5">
         <v>0.95686000000000004</v>
       </c>
-      <c r="E13">
+      <c r="I14" s="5">
         <v>0.83814999999999995</v>
       </c>
-      <c r="F13">
+      <c r="J14" s="6">
         <v>0.9708</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="F15" s="8">
         <v>0.72923000000000004</v>
       </c>
-      <c r="C14">
+      <c r="G15" s="8">
         <v>0.98148000000000002</v>
       </c>
-      <c r="D14">
+      <c r="H15" s="8">
         <v>0.94937000000000005</v>
       </c>
-      <c r="E14">
+      <c r="I15" s="8">
         <v>0.85168999999999995</v>
       </c>
-      <c r="F14">
+      <c r="J15" s="9">
         <v>0.95989999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.74319000000000002</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.97665999999999997</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.95006999999999997</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.80362</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="F25" s="5">
         <v>0.84470000000000001</v>
       </c>
-      <c r="C17">
+      <c r="G25" s="5">
         <v>0.96130000000000004</v>
       </c>
-      <c r="D17">
+      <c r="H25" s="5">
         <v>0.94620000000000004</v>
       </c>
-      <c r="E17">
+      <c r="I25" s="6">
         <v>0.76439999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="F26" s="8">
         <v>0.82420000000000004</v>
       </c>
-      <c r="C18">
+      <c r="G26" s="8">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D18">
+      <c r="H26" s="8">
         <v>0.95289999999999997</v>
       </c>
-      <c r="E18">
+      <c r="I26" s="9">
         <v>0.81240000000000001</v>
       </c>
     </row>
